--- a/REVISION CBA.xlsx
+++ b/REVISION CBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/ANCHOVETA/INFORME_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ECBEDA-4A1F-7D41-A6EE-42ABED2040A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF81C60-C129-0245-9FBC-F1C226624172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="560" windowWidth="25880" windowHeight="22160" activeTab="1" xr2:uid="{CE91A28B-B59E-AD44-B768-15F078088232}"/>
+    <workbookView xWindow="21960" yWindow="560" windowWidth="28460" windowHeight="22160" activeTab="1" xr2:uid="{CE91A28B-B59E-AD44-B768-15F078088232}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchoveta" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -537,10 +537,10 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -12999,8 +12999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A2A72-5416-4A4C-83E7-4BDB1B491C12}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13410,7 +13410,7 @@
         <v>404.584</v>
       </c>
       <c r="AE6" s="37">
-        <f t="shared" ref="AE4:AE8" si="2">+SUM(Z6:AD6)</f>
+        <f t="shared" ref="AE6:AE7" si="2">+SUM(Z6:AD6)</f>
         <v>34830.374000000003</v>
       </c>
     </row>
@@ -13983,8 +13983,7 @@
         <v>27</v>
       </c>
       <c r="W23" s="75">
-        <f>+W22/Y22</f>
-        <v>0.78305426071311746</v>
+        <v>0.81</v>
       </c>
       <c r="Y23" t="s">
         <v>27</v>
@@ -14123,15 +14122,19 @@
       </c>
       <c r="W30" s="2">
         <f>+Z30*(1-W23)</f>
-        <v>80672.574828262994</v>
-      </c>
-      <c r="X30">
+        <v>70652.639999999985</v>
+      </c>
+      <c r="X30" s="2">
         <f>+Z30*0.3</f>
         <v>111556.8</v>
       </c>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33">
         <v>371856</v>
+      </c>
+      <c r="AA30" s="2">
+        <f>+Z30-X30</f>
+        <v>260299.2</v>
       </c>
     </row>
     <row r="31" spans="14:30" x14ac:dyDescent="0.2">
@@ -14140,7 +14143,11 @@
       </c>
       <c r="W31" s="76">
         <f>+W22+W30</f>
-        <v>387078.57482826302</v>
+        <v>377058.64</v>
+      </c>
+      <c r="X31" s="2">
+        <f>+X30+W22</f>
+        <v>417962.8</v>
       </c>
       <c r="Y31" s="23" t="s">
         <v>31</v>
@@ -14150,9 +14157,16 @@
       <c r="N32" s="23">
         <v>279571</v>
       </c>
-      <c r="W32" s="2"/>
+      <c r="W32" s="2">
+        <f>+Y32-W31</f>
+        <v>8405.359999999986</v>
+      </c>
       <c r="Y32" s="23">
         <v>385464</v>
+      </c>
+      <c r="Z32" s="2">
+        <f>+Y32*0.96</f>
+        <v>370045.44</v>
       </c>
     </row>
   </sheetData>
